--- a/img/synthèse.xlsx
+++ b/img/synthèse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\portfolio\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E6096-4071-4F9A-821E-D6E143FC607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0308A-4F16-46E0-A409-3C770150F453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>https://logdcalibre.github.io/Portfolio-Koffi-David-BTS-SIO-SISR.github.io/html/acceuil.html</t>
+  </si>
+  <si>
+    <t>Du 10/2022 au 01/2023</t>
+  </si>
+  <si>
+    <t>AP1: Création d'une entreprise fictive proposant des services en cybersécurité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2: </t>
   </si>
 </sst>
 </file>
@@ -734,9 +743,45 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -760,42 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1213,8 +1222,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1227,56 +1236,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="43"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
@@ -1288,24 +1297,24 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1328,8 +1337,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -1385,16 +1394,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1481,8 +1490,12 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -1526,7 +1539,9 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1886,16 +1901,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2276,16 +2291,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2730,6 +2745,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2737,11 +2757,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2757,6 +2772,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CultureName xmlns="a54630e7-b857-4bdf-808b-f1da7c130004" xsi:nil="true"/>
@@ -2810,15 +2834,6 @@
     </Student_Groups>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3239,6 +3254,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14A1D336-8C6A-4F82-BD4C-ECADBE989409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="57e91659-be1d-4d29-8a34-37188ca8e23d"/>
@@ -3251,14 +3274,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="a54630e7-b857-4bdf-808b-f1da7c130004"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF4CA8B-910A-4F71-9526-D749B61C44AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/img/synthèse.xlsx
+++ b/img/synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\portfolio\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0308A-4F16-46E0-A409-3C770150F453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16F5F9D-A150-4D2F-B36D-7DCAFCA011C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -201,7 +201,10 @@
     <t>AP1: Création d'une entreprise fictive proposant des services en cybersécurité.</t>
   </si>
   <si>
-    <t xml:space="preserve">AP2: </t>
+    <t>Du 02/2023 au 04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP2: Pésentation de GLPI et de ses atouts </t>
   </si>
 </sst>
 </file>
@@ -905,6 +908,1506 @@
         <a:xfrm flipV="1">
           <a:off x="12013096" y="8017565"/>
           <a:ext cx="1298713" cy="563218"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B18E73-C310-4F50-A393-2DFD08EF18A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10732394" y="8585915"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21465</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFF96D6-4A56-41A1-81E6-D69586612A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10753859" y="9090338"/>
+          <a:ext cx="1275569" cy="515155"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connecteur droit 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91170302-C5EF-4345-A2A0-6D4969674D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10732394" y="8585915"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connecteur droit 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C70F0E5-9269-45A5-A82A-8ABB7F0EB1D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10732394" y="9090338"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connecteur droit 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC8C283-1B54-44CD-91C7-E336BD75AAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12009549" y="9090338"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connecteur droit 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E06E617-D721-4460-9745-9B111EBFB51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13286704" y="8585915"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connecteur droit 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79BF2C4-771A-4D9E-8354-2A90D01B271B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13286704" y="9090338"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connecteur droit 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D19BA75-58A0-4E86-89F8-8CEF1BFD48F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13286704" y="8585915"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Connecteur droit 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F76652-48C7-4040-86DB-DE8DC70F67C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12009549" y="9090338"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connecteur droit 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5CCBE1-8220-4E9C-B2FB-CC206F68FFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13286704" y="9090338"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connecteur droit 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99193045-3399-4991-A30A-8568480BAC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8178085" y="13855521"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Connecteur droit 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E67275A4-F39D-4F9D-9563-D0E201005A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8178085" y="13855521"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Connecteur droit 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2AC3A4-A826-4281-B594-F1D8983B65A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6900930" y="13855521"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Connecteur droit 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2C40FF-617C-4AAF-8F70-E9F5E5816860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6900930" y="13855521"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Connecteur droit 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD71EF2-550A-4FC5-BFB0-96B15ECCAF8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6900930" y="15873211"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connecteur droit 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B712B6C0-AEBF-467A-AC88-4AFDBDEFAC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6900930" y="15873211"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Connecteur droit 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F916026-D918-409D-8A1F-07474E403705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8178085" y="15873211"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Connecteur droit 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8CFABC-7F61-4755-825B-818174AEADDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8178085" y="15873211"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Connecteur droit 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583D5732-3F88-4BE4-A9A8-E682B25423AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10732394" y="14359944"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Connecteur droit 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A448D6-F105-421D-A481-F02018AC1363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10732394" y="14864366"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Connecteur droit 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03D468E-E230-4B3A-9EF0-A801747BFC02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10732394" y="15368789"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Connecteur droit 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F509D059-2A7E-401B-A43E-58C32662B93A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10732394" y="15873211"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connecteur droit 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A1AB3F-5A09-4318-8DD1-BC292B2D39BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10732394" y="14359944"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connecteur droit 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE0522D-A3D8-432C-9E12-6967932ADBA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10732394" y="14864366"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>32291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Connecteur droit 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C743160-6004-4EF5-87E6-536AA205088F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10732394" y="15368789"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>32290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Connecteur droit 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C6CB05-D577-42FC-B687-8D4E9DFDE5C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10732394" y="15873211"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>32291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Connecteur droit 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FF93FB-9395-46B6-A96C-5A758C98E899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12009549" y="13351099"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>32291</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Connecteur droit 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B3440E-BB13-42FD-B85C-6E4D20EEC13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12009549" y="16377634"/>
+          <a:ext cx="1297034" cy="536713"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Connecteur droit 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7BC453-E5EB-478B-985F-E129994C8CC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12009549" y="13351099"/>
+          <a:ext cx="1297034" cy="504423"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Connecteur droit 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEA1AF49-5AEB-40D5-82E7-A5680AE79F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12009549" y="16377634"/>
+          <a:ext cx="1297034" cy="504423"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1222,8 +2725,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1540,9 +3043,11 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="8"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
